--- a/RTK_TEMPLATE.xlsx
+++ b/RTK_TEMPLATE.xlsx
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9375" windowHeight="11880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9375" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="@기준점일람표" sheetId="1" r:id="rId1"/>
     <sheet name="@관측기록부" sheetId="2" r:id="rId2"/>
     <sheet name="@관측결과부" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'@관측결과부'!$A$1:$P$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'@관측기록부'!$A$1:$P$17</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>지적기준점 일람표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,55 +81,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지구명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관측일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지구특성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준국 점명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수신기명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안테나 명(번호)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안테나높이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위성고도각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관측시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -146,18 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PDOP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위성수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위성고도각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관측자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,15 +122,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동국정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수신기명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안테나 명(번호)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -453,11 +389,188 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127° 11' 51.2143"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37° 13' 2.4747"</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지구명</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관측일자</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지구특성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기준국 점명</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수신기명</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안테나 명(번호)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안테나높이</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위성고도각</t>
+    </r>
+  </si>
+  <si>
+    <t>안테나 명(번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동국정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>점명</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세션</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관측시간</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종료</t>
+    </r>
+  </si>
+  <si>
+    <t>PDOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위성수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +578,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,8 +668,8 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="굴림"/>
+      <color rgb="FF000000"/>
+      <name val="占쏙옙占쏙옙"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -586,7 +699,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -666,28 +779,159 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -695,6 +939,46 @@
     <border>
       <left style="thin">
         <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
@@ -705,58 +989,12 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,7 +1004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,6 +1017,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,11 +1044,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -800,80 +1074,74 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,13 +1423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
@@ -1179,96 +1450,96 @@
     <col min="15" max="15" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" ht="48" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+    <row r="3" spans="1:15" ht="25.5">
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D3" s="10"/>
       <c r="E3" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1301,6 +1572,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1308,395 +1580,395 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:P8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="17" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="4.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="1.625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="3.125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="11" style="17" customWidth="1"/>
-    <col min="9" max="9" width="7.125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="1" style="17" customWidth="1"/>
-    <col min="11" max="11" width="8.375" style="17" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="17" customWidth="1"/>
-    <col min="13" max="13" width="1.125" style="17" customWidth="1"/>
-    <col min="14" max="14" width="6.125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="7.5" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.125" style="17" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="1.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="1.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="3.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11" style="6" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="1" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8.375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="6" customWidth="1"/>
+    <col min="13" max="13" width="1.125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="6.125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="7.5" style="6" customWidth="1"/>
+    <col min="16" max="16" width="8.125" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:17" ht="50.1" customHeight="1">
+      <c r="B1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+    </row>
+    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1">
+      <c r="B7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
+      <c r="B11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+    </row>
+    <row r="15" spans="1:17" ht="39.950000000000003" customHeight="1">
+      <c r="B15" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" s="16"/>
+      <c r="O15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="H16" s="14"/>
+      <c r="I16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-    </row>
-    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+      <c r="J16" s="14"/>
+      <c r="K16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-    </row>
-    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="20"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-    </row>
-    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-    </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-    </row>
-    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="31"/>
-    </row>
-    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-    </row>
-    <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" spans="2:16" ht="15" customHeight="1">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -1714,15 +1986,15 @@
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A14:P14"/>
     <mergeCell ref="B7:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="B1:P1"/>
@@ -1746,18 +2018,22 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="F11:G11"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="M15:N16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="M15:N16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="7.874015748031496E-2" bottom="7.874015748031496E-2" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="16" max="16" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
@@ -1765,386 +2041,380 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="5.875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="1" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9" style="8"/>
-    <col min="9" max="9" width="1" style="8" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="3.5" style="8" customWidth="1"/>
-    <col min="12" max="12" width="6.375" style="8" customWidth="1"/>
-    <col min="13" max="13" width="4.5" style="8" customWidth="1"/>
-    <col min="14" max="14" width="1.5" style="8" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="8" customWidth="1"/>
-    <col min="16" max="16" width="7.375" style="8" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="1.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="1" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9" style="4"/>
+    <col min="9" max="9" width="1" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="3.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="4.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="1.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="4" customWidth="1"/>
+    <col min="16" max="16" width="7.375" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:16" ht="50.1" customHeight="1">
+      <c r="B1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+    </row>
+    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-    </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+    </row>
+    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+    </row>
+    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+    </row>
+    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="42"/>
+    </row>
+    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+    </row>
+    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+    </row>
+    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+    </row>
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+    </row>
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+    </row>
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+    </row>
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="G16" s="40"/>
+      <c r="H16" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="14" t="s">
+      <c r="I16" s="40"/>
+      <c r="J16" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="K16" s="40"/>
+      <c r="L16" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="14" t="s">
+      <c r="M16" s="40"/>
+      <c r="N16" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-    </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" s="14"/>
-    </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-    </row>
-    <row r="17" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7">
-        <v>165.565</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="16"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+    </row>
+    <row r="17" spans="2:16" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -2153,13 +2423,8 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="E4:P4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
@@ -2174,7 +2439,13 @@
     <mergeCell ref="K9:N9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="E3:P3"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:I15"/>
@@ -2201,9 +2472,13 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="7.874015748031496E-2" bottom="7.874015748031496E-2" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="16" max="16" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/RTK_TEMPLATE.xlsx
+++ b/RTK_TEMPLATE.xlsx
@@ -12,13 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="9375" windowHeight="11880"/>
   </bookViews>
   <sheets>
-    <sheet name="@기준점일람표" sheetId="1" r:id="rId1"/>
-    <sheet name="@관측기록부" sheetId="2" r:id="rId2"/>
-    <sheet name="@관측결과부" sheetId="3" r:id="rId3"/>
+    <sheet name="@표지" sheetId="4" r:id="rId1"/>
+    <sheet name="@기준점일람표" sheetId="1" r:id="rId2"/>
+    <sheet name="@관측기록부" sheetId="2" r:id="rId3"/>
+    <sheet name="@관측결과부" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'@관측결과부'!$A$1:$P$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'@관측기록부'!$A$1:$P$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'@관측결과부'!$A$1:$P$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'@관측기록부'!$A$1:$P$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
   <si>
     <t>지적기준점 일람표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -573,12 +574,65 @@
     <t>위성수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>■ GNSS에 의한 지적측량 규정 [별지 제1호서식]  &lt;개정 2017. 7. 1&gt;</t>
+  </si>
+  <si>
+    <t>지적위성측량부</t>
+  </si>
+  <si>
+    <t>측량구분</t>
+  </si>
+  <si>
+    <t>기초측량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>측량기법</t>
+  </si>
+  <si>
+    <t>다중기준국 실시간 이동측량</t>
+  </si>
+  <si>
+    <t>접수번호</t>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>점수</t>
+  </si>
+  <si>
+    <t>확인</t>
+  </si>
+  <si>
+    <t>(서명 또는 인)</t>
+  </si>
+  <si>
+    <t>측 량 일 자  :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>측   량   자  :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검 사 일 자  :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검   사   자  :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210mm×297mm[백상지(80g/㎡) 또는 중질지(80g/㎡)]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +727,76 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -699,7 +823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -998,13 +1122,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1035,6 +1202,96 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1044,108 +1301,109 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1423,12 +1681,576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="2.25" style="24" customWidth="1"/>
+    <col min="3" max="11" width="5" style="13" customWidth="1"/>
+    <col min="12" max="12" width="5.625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="13" customWidth="1"/>
+    <col min="14" max="14" width="5" style="13" customWidth="1"/>
+    <col min="15" max="15" width="5.875" style="13" customWidth="1"/>
+    <col min="16" max="16" width="5" style="13" customWidth="1"/>
+    <col min="17" max="17" width="2.25" style="13" customWidth="1"/>
+    <col min="18" max="18" width="2.625" style="13" customWidth="1"/>
+    <col min="19" max="22" width="9" style="25"/>
+    <col min="23" max="23" width="9" style="26"/>
+    <col min="24" max="26" width="9" style="27"/>
+    <col min="27" max="16384" width="9" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="2:17">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="2:17" ht="34.5" customHeight="1">
+      <c r="B3" s="17"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="2:17" ht="38.25" customHeight="1">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" spans="2:17" ht="33.75" customHeight="1">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="2:17" ht="36.75" customHeight="1">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="2:17" ht="30" customHeight="1">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="2:17" ht="30" customHeight="1">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="2:17" ht="30" customHeight="1">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="2:17" ht="30" customHeight="1">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="2:17" ht="30" customHeight="1">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="2:17" ht="30" customHeight="1">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="19"/>
+    </row>
+    <row r="13" spans="2:17" ht="30" customHeight="1">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="19"/>
+    </row>
+    <row r="14" spans="2:17" ht="27" customHeight="1">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" spans="2:17" ht="20.25" customHeight="1">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="2:17" ht="3.75" customHeight="1">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="2:17" ht="19.5" customHeight="1">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" spans="2:17" ht="21.75" customHeight="1">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="2:17" ht="20.25" customHeight="1">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="2:17" ht="3.75" customHeight="1">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="19"/>
+    </row>
+    <row r="21" spans="2:17" ht="18.75" customHeight="1">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="2:17" ht="3.75" customHeight="1">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="2:17" ht="18.75" customHeight="1">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="2:17" ht="3.75" customHeight="1">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="2:17" ht="18.75" customHeight="1">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="19"/>
+    </row>
+    <row r="26" spans="2:17" ht="123" customHeight="1">
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="23"/>
+    </row>
+    <row r="27" spans="2:17" ht="13.5" customHeight="1">
+      <c r="K27" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:O23"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="E17:N17"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="D5:O5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:O7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:O8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -1451,70 +2273,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="48" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="25.5">
-      <c r="A3" s="10"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1533,11 +2355,11 @@
       <c r="J3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1"/>
@@ -1576,7 +2398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
@@ -1606,372 +2428,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="50.1" customHeight="1">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="33" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="36" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="24" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="16"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="59"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="28"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="62"/>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
     </row>
     <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13" t="s">
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="24" t="s">
+      <c r="G11" s="47"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="13" t="s">
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
     </row>
     <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13" t="s">
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="20"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="56"/>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
     </row>
     <row r="15" spans="1:17" ht="39.950000000000003" customHeight="1">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="39" t="s">
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="14" t="s">
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="14" t="s">
+      <c r="N15" s="59"/>
+      <c r="O15" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="14" t="s">
+      <c r="P15" s="43" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14" t="s">
+      <c r="H16" s="43"/>
+      <c r="I16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="14"/>
+      <c r="J16" s="43"/>
       <c r="K16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="J7:P8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M12"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:M4"/>
     <mergeCell ref="O15:O16"/>
     <mergeCell ref="P15:P16"/>
     <mergeCell ref="J5:M5"/>
@@ -1988,44 +2848,6 @@
     <mergeCell ref="B7:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="B1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="E3:P3"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="J7:P8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M12"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2037,7 +2859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
@@ -2067,369 +2889,383 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="50.1" customHeight="1">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42" t="s">
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42" t="s">
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="41" t="s">
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42" t="s">
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42" t="s">
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42" t="s">
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42" t="s">
+      <c r="F9" s="71"/>
+      <c r="G9" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42" t="s">
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42" t="s">
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="P9" s="42"/>
+      <c r="P9" s="71"/>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
     </row>
     <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40" t="s">
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40" t="s">
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40" t="s">
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40" t="s">
+      <c r="E16" s="75"/>
+      <c r="F16" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40" t="s">
+      <c r="G16" s="75"/>
+      <c r="H16" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40" t="s">
+      <c r="I16" s="75"/>
+      <c r="J16" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40" t="s">
+      <c r="K16" s="75"/>
+      <c r="L16" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40" t="s">
+      <c r="M16" s="75"/>
+      <c r="N16" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
     </row>
     <row r="17" spans="2:16" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
       <c r="P17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="E4:P4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="K10:N13"/>
+    <mergeCell ref="O10:P13"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
     <mergeCell ref="B1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="B8:D9"/>
@@ -2446,32 +3282,18 @@
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="E3:P3"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="K10:N13"/>
-    <mergeCell ref="O10:P13"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="E4:P4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
